--- a/Processed data/Codebook_STOP_MPX_20230417.xlsx
+++ b/Processed data/Codebook_STOP_MPX_20230417.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="739" documentId="11_9CC678B6E8443F9E32BA966B8546CF7F1D7887A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10CCFBA8-E674-47DC-9E0E-F43731DC66AD}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lluita-my.sharepoint.com/personal/lalonso_lluita_org/Documents/Github/Databases_StopMPX/Processed data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="744" documentId="11_9CC678B6E8443F9E32BA966B8546CF7F1D7887A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BF2CE8A-C528-451C-A34D-DF0AF275A466}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -19,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="449">
   <si>
     <t>Variable</t>
   </si>
@@ -117,54 +120,6 @@
 dk/da</t>
   </si>
   <si>
-    <t>education</t>
-  </si>
-  <si>
-    <t>Highest level of education</t>
-  </si>
-  <si>
-    <t>Primary studies
-Secondary studies
-Vocational training
-University
-Postgraduate (MSc, PhD, etc)
-dk/da</t>
-  </si>
-  <si>
-    <t>income</t>
-  </si>
-  <si>
-    <t>Monthly income</t>
-  </si>
-  <si>
-    <t>No income
-Less than 500 euros
-500 - 749 euros
-750 - 999 euros
-1000 - 1249 euros
-1250 - 1499 euros
-1500 - 1749 euros
-1750 -1999 euros
-2000 - 4000 euros
-More than 4000 euros
-dk/da</t>
-  </si>
-  <si>
-    <t>num_inh</t>
-  </si>
-  <si>
-    <t>Number of inhabitants of the city or town where they live</t>
-  </si>
-  <si>
-    <t>Less than 10.000 inhabitants
-10.000 - 49.000 inhabitants
-49.000 -99.999 inhabitants
-100.000-499.999 inhabitants
-500.000-999.999 inhabitants
-More than a million of inhabitants
-dk/da</t>
-  </si>
-  <si>
     <t>num_cohab</t>
   </si>
   <si>
@@ -283,73 +238,10 @@
     <t>Traveled last 30 days</t>
   </si>
   <si>
-    <t>country_1</t>
-  </si>
-  <si>
-    <t>Country trip 1</t>
-  </si>
-  <si>
     <t>travels = 'Yes'</t>
   </si>
   <si>
-    <t>(Large number of categories)</t>
-  </si>
-  <si>
-    <t>country_2</t>
-  </si>
-  <si>
-    <t>Country trip 2</t>
-  </si>
-  <si>
-    <t>country_3</t>
-  </si>
-  <si>
-    <t>Country trip 3</t>
-  </si>
-  <si>
-    <t>country_4</t>
-  </si>
-  <si>
-    <t>Country trip 4</t>
-  </si>
-  <si>
-    <t>country_5</t>
-  </si>
-  <si>
-    <t>Country trip 5</t>
-  </si>
-  <si>
-    <t>town_1</t>
-  </si>
-  <si>
-    <t>City/town trip 1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>town_2</t>
-  </si>
-  <si>
-    <t>City/town trip 2</t>
-  </si>
-  <si>
-    <t>town_3</t>
-  </si>
-  <si>
-    <t>City/town trip 3</t>
-  </si>
-  <si>
-    <t>town_4</t>
-  </si>
-  <si>
-    <t>City/town trip 4</t>
-  </si>
-  <si>
-    <t>town_5</t>
-  </si>
-  <si>
-    <t>City/town trip 5</t>
   </si>
   <si>
     <t>time_travel_1</t>
@@ -1074,15 +966,6 @@
     <t>Reason for taking MPX test - Other</t>
   </si>
   <si>
-    <t>other_reason_test</t>
-  </si>
-  <si>
-    <t>Specify other reason</t>
-  </si>
-  <si>
-    <t>reason_test_mpx_11 = 'Checked'</t>
-  </si>
-  <si>
     <t>sti_0</t>
   </si>
   <si>
@@ -1596,7 +1479,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1949,8 +1832,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40167C3E-17C8-44FD-BC3C-EEB53314A38E}" name="Tabla1" displayName="Tabla1" ref="A1:F208" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:F208" xr:uid="{40167C3E-17C8-44FD-BC3C-EEB53314A38E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40167C3E-17C8-44FD-BC3C-EEB53314A38E}" name="Tabla1" displayName="Tabla1" ref="A1:F194" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:F194" xr:uid="{40167C3E-17C8-44FD-BC3C-EEB53314A38E}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{A6EFD0C9-8673-466D-AC8A-B868B46BFF25}" name="Variable" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{9252836C-B68E-4D15-B43C-862C1E0212FF}" name="Description" dataDxfId="2"/>
@@ -2242,23 +2125,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F208"/>
+  <dimension ref="A1:F194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="112.42578125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="34" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.140625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="112.44140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" style="34" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.109375" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -2278,7 +2161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
@@ -2296,7 +2179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="60.75">
+    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
@@ -2314,7 +2197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="60.75">
+    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>16</v>
       </c>
@@ -2332,7 +2215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="76.5">
+    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>19</v>
       </c>
@@ -2350,7 +2233,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45.75">
+    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>22</v>
       </c>
@@ -2368,7 +2251,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="91.5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>25</v>
       </c>
@@ -2380,13 +2263,11 @@
         <v>13</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="167.25">
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>28</v>
       </c>
@@ -2404,7 +2285,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="106.5">
+    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>31</v>
       </c>
@@ -2419,31 +2300,33 @@
         <v>14</v>
       </c>
       <c r="F9" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="17" t="s">
+      <c r="B10" s="25" t="s">
         <v>34</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>35</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>36</v>
-      </c>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" ht="45.75">
-      <c r="A11" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>38</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
@@ -2453,15 +2336,15 @@
         <v>14</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="45.75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
@@ -2471,15 +2354,15 @@
         <v>14</v>
       </c>
       <c r="F12" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="45.75">
-      <c r="A13" s="17" t="s">
-        <v>42</v>
-      </c>
       <c r="B13" s="25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
@@ -2489,15 +2372,15 @@
         <v>14</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="45.75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
@@ -2507,15 +2390,15 @@
         <v>14</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="45.75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
@@ -2525,15 +2408,15 @@
         <v>14</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="45.75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
@@ -2543,15 +2426,15 @@
         <v>14</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="45.75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
@@ -2561,15 +2444,15 @@
         <v>14</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="45.75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
@@ -2579,2703 +2462,2697 @@
         <v>14</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="45.75">
-      <c r="A19" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="45.75">
-      <c r="A20" s="17" t="s">
+      <c r="B20" s="25" t="s">
         <v>56</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>57</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="45.75">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="B22" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="1:6" ht="45.75">
-      <c r="A23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="45.75">
-      <c r="A24" s="17" t="s">
+      <c r="C24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B25" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="45.75">
-      <c r="A25" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="25" t="s">
+      <c r="C26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
+      <c r="B27" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="17" t="s">
+      <c r="C27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B28" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="10" t="s">
+      <c r="B29" s="25" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="17" t="s">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B30" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="17" t="s">
+      <c r="C30" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="D30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="17" t="s">
+      <c r="B31" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="C31" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="17" t="s">
+      <c r="B32" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="C32" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="17" t="s">
+      <c r="B33" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="C33" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" s="11" t="s">
+      <c r="B34" s="25" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="17" t="s">
+      <c r="C34" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B35" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" s="11"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="17" t="s">
+      <c r="C35" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B36" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="11"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="17" t="s">
+      <c r="C36" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B37" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="11"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="17" t="s">
+      <c r="C37" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B38" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F35" s="11"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="17" t="s">
+      <c r="C38" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
         <v>95</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" s="11"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F37" s="11"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="17" t="s">
-        <v>100</v>
       </c>
       <c r="B39" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>74</v>
+      <c r="C39" s="33" t="s">
+        <v>78</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="17" t="s">
+      <c r="D40" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" s="12"/>
+    </row>
+    <row r="41" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="25" t="s">
         <v>101</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="45.75">
-      <c r="A41" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>103</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E41" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="45.75">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="C42" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="3"/>
       <c r="D42" s="3" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="45.75">
+        <v>54</v>
+      </c>
+      <c r="F42" s="11"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
         <v>106</v>
       </c>
       <c r="B43" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="11"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="45.75">
-      <c r="A44" s="17" t="s">
+      <c r="B44" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="C44" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" s="11"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C44" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="45.75">
-      <c r="A45" s="17" t="s">
+      <c r="B45" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="C45" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45" s="11"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="C45" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="45.75">
-      <c r="A46" s="17" t="s">
+      <c r="B46" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="C46" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F46" s="11"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C46" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="45.75">
-      <c r="A47" s="17" t="s">
+      <c r="B47" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="C47" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F47" s="11"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="45.75">
-      <c r="A48" s="17" t="s">
+      <c r="B48" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="C48" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F48" s="11"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C48" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="45.75">
-      <c r="A49" s="17" t="s">
+      <c r="B49" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="C49" s="3"/>
+      <c r="D49" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C49" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="45.75">
-      <c r="A50" s="17" t="s">
+      <c r="B50" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="C50" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C50" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="45.75">
+    </row>
+    <row r="51" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
         <v>123</v>
       </c>
       <c r="B51" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="C51" s="33" t="s">
-        <v>108</v>
+      <c r="C51" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E51" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="45.75">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
         <v>125</v>
       </c>
       <c r="B52" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="C52" s="33" t="s">
-        <v>108</v>
+      <c r="C52" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E52" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F53" s="12"/>
-    </row>
-    <row r="54" spans="1:6" ht="45.75">
-      <c r="A54" s="17" t="s">
+      <c r="B54" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="C54" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3" t="s">
+      <c r="B55" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="17" t="s">
+      <c r="C55" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="B56" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C56" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F55" s="11"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="17" t="s">
+      <c r="B57" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="C57" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F56" s="11"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="17" t="s">
+      <c r="B58" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="B57" s="25" t="s">
+      <c r="C58" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F57" s="11"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="17" t="s">
+      <c r="B59" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="B58" s="25" t="s">
+      <c r="C59" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F58" s="11"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="17" t="s">
+      <c r="B60" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B59" s="25" t="s">
+      <c r="C60" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F59" s="11"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="17" t="s">
+      <c r="B61" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="B60" s="25" t="s">
+      <c r="C61" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F60" s="11"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="17" t="s">
+      <c r="B62" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="B61" s="25" t="s">
+      <c r="C62" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F61" s="11"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="17" t="s">
+      <c r="B63" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="B62" s="25" t="s">
+      <c r="C63" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="106.5">
-      <c r="A63" s="17" t="s">
+      <c r="B64" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="B63" s="25" t="s">
+      <c r="C64" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" s="10" t="s">
+      <c r="B65" s="21" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="106.5">
-      <c r="A64" s="17" t="s">
+      <c r="C65" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A66" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="B64" s="25" t="s">
+      <c r="B66" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="45.75">
-      <c r="A65" s="17" t="s">
+      <c r="C66" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="B65" s="25" t="s">
+      <c r="B67" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="45.75">
-      <c r="A66" s="17" t="s">
+      <c r="C67" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="B68" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="45.75">
-      <c r="A67" s="17" t="s">
+      <c r="C68" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="D68" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F68" s="11"/>
+    </row>
+    <row r="69" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="45.75">
-      <c r="A68" s="17" t="s">
+      <c r="B69" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="C69" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="45.75">
-      <c r="A69" s="17" t="s">
+    </row>
+    <row r="70" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="B69" s="21" t="s">
+      <c r="B70" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="45.75">
-      <c r="A70" s="17" t="s">
+      <c r="C70" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="B70" s="21" t="s">
+      <c r="B71" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="45.75">
-      <c r="A71" s="17" t="s">
+      <c r="C71" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B71" s="21" t="s">
+      <c r="D71" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F71" s="11"/>
+    </row>
+    <row r="72" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="45.75">
-      <c r="A72" s="17" t="s">
+      <c r="B72" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="B72" s="21" t="s">
+      <c r="C72" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="45.75">
-      <c r="A73" s="17" t="s">
+      <c r="B73" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="B73" s="21" t="s">
+      <c r="C73" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="45.75">
-      <c r="A74" s="17" t="s">
+      <c r="B74" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="B74" s="21" t="s">
+      <c r="C74" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="45.75">
-      <c r="A75" s="17" t="s">
+      <c r="B75" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="B75" s="21" t="s">
+      <c r="C75" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A76" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="45.75">
-      <c r="A76" s="17" t="s">
+      <c r="B76" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="B76" s="21" t="s">
+      <c r="C76" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A77" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="45.75">
-      <c r="A77" s="17" t="s">
+      <c r="B77" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="B77" s="21" t="s">
+      <c r="C77" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A78" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="45.75">
-      <c r="A78" s="17" t="s">
+      <c r="B78" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B78" s="21" t="s">
+      <c r="C78" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A79" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F78" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="45.75">
-      <c r="A79" s="17" t="s">
+      <c r="B79" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="B79" s="21" t="s">
+      <c r="C79" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A80" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="45.75">
-      <c r="A80" s="17" t="s">
+      <c r="B80" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B80" s="21" t="s">
+      <c r="C80" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A81" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="17" t="s">
+      <c r="B81" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="B81" s="30" t="s">
+      <c r="C81" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A82" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="B82" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F81" s="11"/>
-    </row>
-    <row r="82" spans="1:6" ht="106.5">
-      <c r="A82" s="17" t="s">
+      <c r="C82" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A83" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="B82" s="25" t="s">
+      <c r="B83" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="10" t="s">
+      <c r="C83" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A84" s="17" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="45.75">
-      <c r="A83" s="17" t="s">
+      <c r="B84" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="B83" s="25" t="s">
+      <c r="C84" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="17" t="s">
+      <c r="B85" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="B84" s="25" t="s">
+      <c r="C85" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A86" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="B86" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F84" s="11"/>
-    </row>
-    <row r="85" spans="1:6" ht="45.75">
-      <c r="A85" s="17" t="s">
+      <c r="C86" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A87" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="B85" s="25" t="s">
+      <c r="B87" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="45.75">
-      <c r="A86" s="17" t="s">
+      <c r="C87" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A88" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="B86" s="25" t="s">
+      <c r="B88" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="45.75">
-      <c r="A87" s="17" t="s">
+      <c r="C88" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A89" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="B87" s="25" t="s">
+      <c r="B89" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F87" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="45.75">
-      <c r="A88" s="17" t="s">
+      <c r="C89" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A90" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="B88" s="25" t="s">
+      <c r="B90" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F88" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="45.75">
-      <c r="A89" s="17" t="s">
+      <c r="C90" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="B89" s="25" t="s">
+      <c r="B91" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F89" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="45.75">
-      <c r="A90" s="17" t="s">
+      <c r="C91" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B90" s="25" t="s">
+      <c r="D91" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F91" s="11"/>
+    </row>
+    <row r="92" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A92" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="45.75">
-      <c r="A91" s="17" t="s">
+      <c r="B92" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="B91" s="25" t="s">
+      <c r="C92" s="3"/>
+      <c r="D92" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="45.75">
-      <c r="A92" s="17" t="s">
+    </row>
+    <row r="93" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A93" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="B92" s="25" t="s">
+      <c r="B93" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="45.75">
-      <c r="A93" s="17" t="s">
+      <c r="C93" s="6"/>
+      <c r="D93" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A94" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="B93" s="25" t="s">
+      <c r="B94" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="45.75">
-      <c r="A94" s="17" t="s">
+      <c r="C94" s="6"/>
+      <c r="D94" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A95" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="B94" s="25" t="s">
+      <c r="B95" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F94" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="45.75">
-      <c r="A95" s="17" t="s">
+      <c r="C95" s="6"/>
+      <c r="D95" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A96" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="B95" s="25" t="s">
+      <c r="B96" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="45.75">
-      <c r="A96" s="17" t="s">
+      <c r="C96" s="6"/>
+      <c r="D96" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A97" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="B96" s="25" t="s">
+      <c r="B97" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="45.75">
-      <c r="A97" s="17" t="s">
+      <c r="C97" s="6"/>
+      <c r="D97" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A98" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="B97" s="25" t="s">
+      <c r="B98" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F97" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="45.75">
-      <c r="A98" s="17" t="s">
+      <c r="C98" s="6"/>
+      <c r="D98" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A99" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="B98" s="25" t="s">
+      <c r="B99" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F98" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="45.75">
-      <c r="A99" s="17" t="s">
+      <c r="C99" s="6"/>
+      <c r="D99" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A100" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="B99" s="25" t="s">
+      <c r="B100" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="C99" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F99" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="45.75">
-      <c r="A100" s="17" t="s">
+      <c r="C100" s="6"/>
+      <c r="D100" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="B100" s="25" t="s">
+      <c r="B101" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F100" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="45.75">
-      <c r="A101" s="17" t="s">
+      <c r="C101" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="B101" s="25" t="s">
+      <c r="D101" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F101" s="11"/>
+    </row>
+    <row r="102" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A102" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F101" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="45.75">
-      <c r="A102" s="17" t="s">
+      <c r="B102" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="B102" s="25" t="s">
+      <c r="C102" s="3"/>
+      <c r="D102" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A103" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="45.75">
-      <c r="A103" s="17" t="s">
+      <c r="B103" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="B103" s="25" t="s">
+      <c r="C103" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="D103" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E103" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E103" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="B104" s="25" t="s">
+    </row>
+    <row r="104" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A104" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="B104" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="D104" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F104" s="11"/>
-    </row>
-    <row r="105" spans="1:6" ht="91.5">
+      <c r="C104" s="2"/>
+      <c r="D104" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A105" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="B105" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D105" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B105" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E105" s="3" t="s">
+      <c r="E105" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="91.5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A106" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="B106" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B106" s="21" t="s">
+      <c r="D106" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C106" s="6"/>
-      <c r="D106" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F106" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="91.5">
+    </row>
+    <row r="107" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A107" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="B107" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="C107" s="6"/>
+        <v>246</v>
+      </c>
+      <c r="B107" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>242</v>
+      </c>
       <c r="D107" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E107" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E107" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="91.5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A108" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="B108" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="C108" s="6"/>
+        <v>248</v>
+      </c>
+      <c r="B108" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>242</v>
+      </c>
       <c r="D108" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E108" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E108" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="91.5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A109" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="B109" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="C109" s="6"/>
+        <v>250</v>
+      </c>
+      <c r="B109" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>242</v>
+      </c>
       <c r="D109" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E109" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E109" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="91.5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A110" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="B110" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="C110" s="6"/>
+        <v>252</v>
+      </c>
+      <c r="B110" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>242</v>
+      </c>
       <c r="D110" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E110" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E110" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="91.5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A111" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="B111" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="C111" s="6"/>
+        <v>254</v>
+      </c>
+      <c r="B111" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>242</v>
+      </c>
       <c r="D111" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E111" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E111" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="91.5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A112" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="B112" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="C112" s="6"/>
+        <v>256</v>
+      </c>
+      <c r="B112" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>242</v>
+      </c>
       <c r="D112" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E112" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E112" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="91.5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A113" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="B113" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="C113" s="6"/>
+        <v>258</v>
+      </c>
+      <c r="B113" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>242</v>
+      </c>
       <c r="D113" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E113" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E113" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A114" s="17" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>259</v>
-      </c>
-      <c r="C114" s="39" t="s">
-        <v>260</v>
+        <v>261</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F114" s="11"/>
-    </row>
-    <row r="115" spans="1:6" ht="45.75">
+        <v>239</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F114" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A115" s="17" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="C115" s="3"/>
+        <v>263</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>242</v>
+      </c>
       <c r="D115" s="3" t="s">
-        <v>132</v>
+        <v>239</v>
       </c>
       <c r="E115" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="91.5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="17" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B116" s="25" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>132</v>
+        <v>239</v>
       </c>
       <c r="E116" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F116" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="17" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" ht="45.75">
-      <c r="A117" s="16" t="s">
+      <c r="B117" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="B117" s="24" t="s">
+      <c r="C117" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F117" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2" t="s">
+    </row>
+    <row r="118" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A118" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F117" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="91.5">
-      <c r="A118" s="17" t="s">
+      <c r="B118" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="B118" s="25" t="s">
+      <c r="C118" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="D118" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E118" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118" s="10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A119" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="D118" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F118" s="10" t="s">
+      <c r="B119" s="31" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" ht="91.5">
-      <c r="A119" s="17" t="s">
+      <c r="C119" s="2"/>
+      <c r="D119" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B119" s="25" t="s">
+      <c r="E119" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A120" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="C119" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F119" s="10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="91.5">
-      <c r="A120" s="17" t="s">
+      <c r="B120" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="B120" s="25" t="s">
+      <c r="C120" s="6"/>
+      <c r="D120" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F120" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A121" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C120" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E120" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F120" s="10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="91.5">
-      <c r="A121" s="17" t="s">
+      <c r="B121" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="B121" s="25" t="s">
+      <c r="C121" s="6"/>
+      <c r="D121" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A122" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="C121" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F121" s="10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="91.5">
-      <c r="A122" s="17" t="s">
+      <c r="B122" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="B122" s="25" t="s">
+      <c r="C122" s="6"/>
+      <c r="D122" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A123" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="C122" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F122" s="10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="91.5">
-      <c r="A123" s="17" t="s">
+      <c r="B123" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="B123" s="25" t="s">
+      <c r="C123" s="6"/>
+      <c r="D123" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A124" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="C123" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E123" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F123" s="10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="91.5">
-      <c r="A124" s="17" t="s">
+      <c r="B124" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="B124" s="25" t="s">
+      <c r="C124" s="6"/>
+      <c r="D124" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F124" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A125" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="C124" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E124" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F124" s="10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="91.5">
-      <c r="A125" s="17" t="s">
+      <c r="B125" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="B125" s="25" t="s">
+      <c r="C125" s="6"/>
+      <c r="D125" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F125" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A126" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="C125" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E125" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F125" s="10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="91.5">
-      <c r="A126" s="17" t="s">
+      <c r="B126" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="B126" s="25" t="s">
+      <c r="C126" s="6"/>
+      <c r="D126" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F126" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A127" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="C126" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F126" s="10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="91.5">
-      <c r="A127" s="17" t="s">
+      <c r="B127" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="B127" s="25" t="s">
+      <c r="C127" s="6"/>
+      <c r="D127" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F127" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A128" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C127" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E127" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F127" s="10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="91.5">
-      <c r="A128" s="17" t="s">
+      <c r="B128" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="B128" s="25" t="s">
+      <c r="C128" s="6"/>
+      <c r="D128" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A129" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="C128" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F128" s="10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="90.75" customHeight="1">
-      <c r="A129" s="17" t="s">
+      <c r="B129" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="B129" s="25" t="s">
+      <c r="C129" s="6"/>
+      <c r="D129" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A130" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C129" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E129" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F129" s="10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="90" customHeight="1">
-      <c r="A130" s="17" t="s">
+      <c r="B130" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="B130" s="25" t="s">
+      <c r="C130" s="3"/>
+      <c r="D130" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F130" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A131" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C130" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E130" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F130" s="10" t="s">
+      <c r="B131" s="25" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" ht="91.5">
-      <c r="A131" s="17" t="s">
+      <c r="C131" s="3"/>
+      <c r="D131" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A132" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="B131" s="25" t="s">
+      <c r="B132" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C132" s="3"/>
+      <c r="D132" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F132" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A133" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="D131" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E131" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F131" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="45.75">
-      <c r="A132" s="16" t="s">
+      <c r="B133" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="B132" s="31" t="s">
+      <c r="C133" s="3"/>
+      <c r="D133" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F133" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A134" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2" t="s">
+      <c r="B134" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="E132" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F132" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="45.75">
-      <c r="A133" s="17" t="s">
+      <c r="C134" s="3"/>
+      <c r="D134" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F134" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A135" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="B133" s="21" t="s">
+      <c r="B135" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="C133" s="6"/>
-      <c r="D133" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F133" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="45.75">
-      <c r="A134" s="17" t="s">
+      <c r="C135" s="3"/>
+      <c r="D135" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F135" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A136" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="B134" s="21" t="s">
+      <c r="B136" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="C134" s="6"/>
-      <c r="D134" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F134" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="45.75">
-      <c r="A135" s="17" t="s">
+      <c r="C136" s="3"/>
+      <c r="D136" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A137" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="B135" s="21" t="s">
+      <c r="B137" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="C135" s="6"/>
-      <c r="D135" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F135" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="45.75">
-      <c r="A136" s="17" t="s">
+      <c r="C137" s="3"/>
+      <c r="D137" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F137" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A138" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="B136" s="21" t="s">
+      <c r="B138" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="C136" s="6"/>
-      <c r="D136" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F136" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="45.75">
-      <c r="A137" s="17" t="s">
+      <c r="C138" s="3"/>
+      <c r="D138" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F138" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A139" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="B137" s="21" t="s">
+      <c r="B139" s="25" t="s">
         <v>314</v>
       </c>
-      <c r="C137" s="6"/>
-      <c r="D137" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F137" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="45.75">
-      <c r="A138" s="17" t="s">
+      <c r="C139" s="3"/>
+      <c r="D139" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F139" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A140" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="B138" s="21" t="s">
+      <c r="B140" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="C138" s="6"/>
-      <c r="D138" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F138" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="45.75">
-      <c r="A139" s="17" t="s">
+      <c r="C140" s="3"/>
+      <c r="D140" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F140" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A141" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="B139" s="21" t="s">
+      <c r="B141" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="C139" s="6"/>
-      <c r="D139" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F139" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="45.75">
-      <c r="A140" s="17" t="s">
+      <c r="C141" s="3"/>
+      <c r="D141" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F141" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A142" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="B140" s="21" t="s">
+      <c r="B142" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="C140" s="6"/>
-      <c r="D140" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F140" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="45.75">
-      <c r="A141" s="17" t="s">
+      <c r="C142" s="3"/>
+      <c r="D142" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F142" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="B141" s="21" t="s">
+      <c r="B143" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="C141" s="6"/>
-      <c r="D141" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F141" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="45.75">
-      <c r="A142" s="17" t="s">
+      <c r="C143" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B142" s="21" t="s">
+      <c r="D143" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F143" s="11"/>
+    </row>
+    <row r="144" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="C142" s="6"/>
-      <c r="D142" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F142" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143" s="17" t="s">
+      <c r="B144" s="25" t="s">
         <v>325</v>
-      </c>
-      <c r="B143" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F143" s="11"/>
-    </row>
-    <row r="144" spans="1:6" ht="45.75">
-      <c r="A144" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="B144" s="25" t="s">
-        <v>329</v>
       </c>
       <c r="C144" s="3"/>
       <c r="D144" s="3" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="45.75">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A145" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B145" s="25" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C145" s="3"/>
       <c r="D145" s="3" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="45.75">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A146" s="17" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B146" s="25" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C146" s="3"/>
       <c r="D146" s="3" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F146" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="45.75">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A147" s="17" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B147" s="25" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F147" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="45.75">
-      <c r="A148" s="17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A148" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="B148" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="C148" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B148" s="25" t="s">
+      <c r="D148" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F148" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="45.75">
+      <c r="E148" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F148" s="38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A149" s="17" t="s">
         <v>338</v>
       </c>
       <c r="B149" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="C149" s="3"/>
-      <c r="D149" s="3" t="s">
-        <v>304</v>
+      <c r="C149" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D149" s="35" t="s">
+        <v>341</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F149" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="45.75">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A150" s="17" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B150" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="C150" s="3"/>
+      <c r="D150" s="35" t="s">
         <v>341</v>
       </c>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3" t="s">
-        <v>304</v>
-      </c>
       <c r="E150" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F150" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="45.75">
-      <c r="A151" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="B151" s="25" t="s">
-        <v>343</v>
-      </c>
-      <c r="C151" s="3"/>
-      <c r="D151" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F151" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="45.75">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A151" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="B151" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="C151" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="D151" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F151" s="37" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A152" s="17" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B152" s="25" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C152" s="3"/>
       <c r="D152" s="3" t="s">
-        <v>304</v>
+        <v>353</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F152" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="45.75">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A153" s="17" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B153" s="25" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C153" s="3"/>
-      <c r="D153" s="3" t="s">
-        <v>304</v>
+      <c r="D153" s="6" t="s">
+        <v>353</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F153" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="45.75">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A154" s="17" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="B154" s="25" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C154" s="3"/>
-      <c r="D154" s="3" t="s">
-        <v>304</v>
+      <c r="D154" s="6" t="s">
+        <v>353</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F154" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="45.75">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A155" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="B155" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="C155" s="3"/>
+      <c r="D155" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F155" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="B155" s="25" t="s">
-        <v>351</v>
-      </c>
-      <c r="C155" s="3"/>
-      <c r="D155" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F155" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="45.75">
+    </row>
+    <row r="156" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A156" s="17" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="B156" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C156" s="3"/>
+      <c r="D156" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C156" s="3"/>
-      <c r="D156" s="3" t="s">
-        <v>304</v>
-      </c>
       <c r="E156" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F156" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A157" s="17" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="B157" s="25" t="s">
-        <v>355</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>304</v>
+        <v>365</v>
+      </c>
+      <c r="C157" s="3"/>
+      <c r="D157" s="6" t="s">
+        <v>353</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F157" s="11"/>
-    </row>
-    <row r="158" spans="1:6" ht="93" customHeight="1">
+        <v>14</v>
+      </c>
+      <c r="F157" s="10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A158" s="17" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B158" s="25" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C158" s="3"/>
-      <c r="D158" s="3" t="s">
-        <v>304</v>
+      <c r="D158" s="6" t="s">
+        <v>353</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F158" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="91.5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A159" s="17" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="B159" s="25" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="C159" s="3"/>
-      <c r="D159" s="3" t="s">
-        <v>304</v>
+      <c r="D159" s="6" t="s">
+        <v>353</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F159" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="60.75">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A160" s="17" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="B160" s="25" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="C160" s="3"/>
-      <c r="D160" s="3" t="s">
-        <v>304</v>
+      <c r="D160" s="6" t="s">
+        <v>353</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>14</v>
@@ -5284,121 +5161,115 @@
         <v>363</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="76.5">
+    <row r="161" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A161" s="17" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B161" s="25" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C161" s="3"/>
-      <c r="D161" s="3" t="s">
-        <v>304</v>
+      <c r="D161" s="6" t="s">
+        <v>353</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F161" s="10" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="45.75">
-      <c r="A162" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="B162" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D162" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F162" s="38" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="76.5">
-      <c r="A163" s="17" t="s">
-        <v>371</v>
-      </c>
-      <c r="B163" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="D163" s="35" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A162" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="E163" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F163" s="10" t="s">
+      <c r="B162" s="25" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" ht="60.75">
+      <c r="C162" s="3"/>
+      <c r="D162" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F162" s="10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A163" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="B163" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F163" s="9" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A164" s="17" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B164" s="25" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C164" s="3"/>
-      <c r="D164" s="35" t="s">
-        <v>374</v>
+      <c r="D164" s="6" t="s">
+        <v>378</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F164" s="10" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A165" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="B165" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="C165" s="3"/>
+      <c r="D165" s="6" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" ht="91.5">
-      <c r="A165" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="B165" s="26" t="s">
-        <v>380</v>
-      </c>
-      <c r="C165" s="36" t="s">
-        <v>381</v>
-      </c>
-      <c r="D165" s="36" t="s">
-        <v>382</v>
-      </c>
-      <c r="E165" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F165" s="37" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="91.5">
+      <c r="E165" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F165" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A166" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="B166" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="C166" s="3"/>
+      <c r="D166" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F166" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="B166" s="25" t="s">
-        <v>385</v>
-      </c>
-      <c r="C166" s="3"/>
-      <c r="D166" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F166" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="91.5">
+    </row>
+    <row r="167" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A167" s="17" t="s">
         <v>387</v>
       </c>
@@ -5407,7 +5278,7 @@
       </c>
       <c r="C167" s="3"/>
       <c r="D167" s="6" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>14</v>
@@ -5416,7 +5287,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="91.5">
+    <row r="168" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A168" s="17" t="s">
         <v>390</v>
       </c>
@@ -5425,16 +5296,16 @@
       </c>
       <c r="C168" s="3"/>
       <c r="D168" s="6" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F168" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="91.5">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A169" s="17" t="s">
         <v>392</v>
       </c>
@@ -5443,16 +5314,16 @@
       </c>
       <c r="C169" s="3"/>
       <c r="D169" s="6" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F169" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="91.5">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A170" s="17" t="s">
         <v>394</v>
       </c>
@@ -5461,699 +5332,447 @@
       </c>
       <c r="C170" s="3"/>
       <c r="D170" s="6" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F170" s="10" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A171" s="17" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" ht="91.5">
-      <c r="A171" s="17" t="s">
+      <c r="B171" s="25" t="s">
         <v>397</v>
-      </c>
-      <c r="B171" s="25" t="s">
-        <v>398</v>
       </c>
       <c r="C171" s="3"/>
       <c r="D171" s="6" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F171" s="10" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="91.5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A172" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="B172" s="21" t="s">
         <v>399</v>
-      </c>
-      <c r="B172" s="25" t="s">
-        <v>400</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="6" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F172" s="10" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="91.5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A173" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B173" s="21" t="s">
         <v>401</v>
-      </c>
-      <c r="B173" s="25" t="s">
-        <v>402</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="6" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F173" s="10" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="91.5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A174" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="B174" s="21" t="s">
         <v>403</v>
-      </c>
-      <c r="B174" s="25" t="s">
-        <v>404</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="6" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F174" s="10" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="91.5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A175" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="B175" s="21" t="s">
         <v>405</v>
-      </c>
-      <c r="B175" s="25" t="s">
-        <v>406</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="6" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F175" s="10" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="91.5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A176" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="B176" s="21" t="s">
         <v>407</v>
-      </c>
-      <c r="B176" s="25" t="s">
-        <v>408</v>
       </c>
       <c r="C176" s="3"/>
       <c r="D176" s="6" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F176" s="10" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="91.5">
-      <c r="A177" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A177" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="B177" s="21" t="s">
         <v>409</v>
       </c>
-      <c r="B177" s="24" t="s">
+      <c r="C177" s="3"/>
+      <c r="D177" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F177" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A178" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="C177" s="2"/>
-      <c r="D177" s="2" t="s">
+      <c r="B178" s="25" t="s">
         <v>411</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F177" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="91.5">
-      <c r="A178" s="17" t="s">
-        <v>413</v>
-      </c>
-      <c r="B178" s="25" t="s">
-        <v>414</v>
       </c>
       <c r="C178" s="3"/>
       <c r="D178" s="6" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F178" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A179" s="17" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" ht="91.5">
-      <c r="A179" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="B179" s="25" t="s">
-        <v>416</v>
+      <c r="B179" s="21" t="s">
+        <v>413</v>
       </c>
       <c r="C179" s="3"/>
       <c r="D179" s="6" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F179" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="B180" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F180" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A181" s="17" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" ht="91.5">
-      <c r="A180" s="17" t="s">
+      <c r="B181" s="25" t="s">
         <v>418</v>
-      </c>
-      <c r="B180" s="25" t="s">
-        <v>419</v>
-      </c>
-      <c r="C180" s="3"/>
-      <c r="D180" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="E180" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F180" s="10" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="60.75">
-      <c r="A181" s="17" t="s">
-        <v>420</v>
-      </c>
-      <c r="B181" s="25" t="s">
-        <v>421</v>
       </c>
       <c r="C181" s="3"/>
       <c r="D181" s="6" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F181" s="10" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="91.5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A182" s="17" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B182" s="25" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C182" s="3"/>
       <c r="D182" s="6" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F182" s="10" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="91.5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A183" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="B183" s="25" t="s">
-        <v>426</v>
+        <v>421</v>
+      </c>
+      <c r="B183" s="21" t="s">
+        <v>422</v>
       </c>
       <c r="C183" s="3"/>
       <c r="D183" s="6" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F183" s="10" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="91.5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A184" s="17" t="s">
-        <v>427</v>
-      </c>
-      <c r="B184" s="25" t="s">
-        <v>428</v>
+        <v>423</v>
+      </c>
+      <c r="B184" s="21" t="s">
+        <v>424</v>
       </c>
       <c r="C184" s="3"/>
       <c r="D184" s="6" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="E184" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F184" s="10" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="45.75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A185" s="17" t="s">
-        <v>429</v>
-      </c>
-      <c r="B185" s="25" t="s">
-        <v>430</v>
+        <v>425</v>
+      </c>
+      <c r="B185" s="21" t="s">
+        <v>426</v>
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="6" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F185" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="45.75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A186" s="17" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B186" s="21" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C186" s="3"/>
       <c r="D186" s="6" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F186" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="45.75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A187" s="17" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B187" s="21" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C187" s="3"/>
       <c r="D187" s="6" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F187" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="45.75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A188" s="17" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B188" s="21" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C188" s="3"/>
       <c r="D188" s="6" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="E188" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F188" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="45.75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="B189" s="25" t="s">
+        <v>434</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F189" s="11"/>
+    </row>
+    <row r="190" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A190" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="B190" s="25" t="s">
         <v>437</v>
-      </c>
-      <c r="B189" s="21" t="s">
-        <v>438</v>
-      </c>
-      <c r="C189" s="3"/>
-      <c r="D189" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="E189" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F189" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" ht="45.75">
-      <c r="A190" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="B190" s="21" t="s">
-        <v>440</v>
       </c>
       <c r="C190" s="3"/>
       <c r="D190" s="6" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F190" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="45.75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A191" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="B191" s="21" t="s">
-        <v>442</v>
+        <v>438</v>
+      </c>
+      <c r="B191" s="25" t="s">
+        <v>439</v>
       </c>
       <c r="C191" s="3"/>
       <c r="D191" s="6" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F191" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" ht="45.75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A192" s="17" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B192" s="25" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C192" s="3"/>
       <c r="D192" s="6" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F192" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="45.75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A193" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="B193" s="21" t="s">
-        <v>446</v>
+        <v>442</v>
+      </c>
+      <c r="B193" s="25" t="s">
+        <v>443</v>
       </c>
       <c r="C193" s="3"/>
       <c r="D193" s="6" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F193" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="A194" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A194" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="B194" s="27" t="s">
+        <v>445</v>
+      </c>
+      <c r="C194" s="7"/>
+      <c r="D194" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="E194" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="B194" s="25" t="s">
+      <c r="F194" s="13" t="s">
         <v>448</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="D194" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="E194" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F194" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="45.75">
-      <c r="A195" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="B195" s="25" t="s">
-        <v>451</v>
-      </c>
-      <c r="C195" s="3"/>
-      <c r="D195" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="E195" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F195" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="45.75">
-      <c r="A196" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="B196" s="25" t="s">
-        <v>453</v>
-      </c>
-      <c r="C196" s="3"/>
-      <c r="D196" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="E196" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F196" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" ht="45.75">
-      <c r="A197" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="B197" s="21" t="s">
-        <v>455</v>
-      </c>
-      <c r="C197" s="3"/>
-      <c r="D197" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="E197" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F197" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="45.75">
-      <c r="A198" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="B198" s="21" t="s">
-        <v>457</v>
-      </c>
-      <c r="C198" s="3"/>
-      <c r="D198" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="E198" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F198" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="45.75">
-      <c r="A199" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="B199" s="21" t="s">
-        <v>459</v>
-      </c>
-      <c r="C199" s="3"/>
-      <c r="D199" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="E199" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F199" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="45.75">
-      <c r="A200" s="17" t="s">
-        <v>460</v>
-      </c>
-      <c r="B200" s="21" t="s">
-        <v>461</v>
-      </c>
-      <c r="C200" s="3"/>
-      <c r="D200" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="E200" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F200" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" ht="45.75">
-      <c r="A201" s="17" t="s">
-        <v>462</v>
-      </c>
-      <c r="B201" s="21" t="s">
-        <v>463</v>
-      </c>
-      <c r="C201" s="3"/>
-      <c r="D201" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="E201" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F201" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="45.75">
-      <c r="A202" s="17" t="s">
-        <v>464</v>
-      </c>
-      <c r="B202" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="C202" s="3"/>
-      <c r="D202" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="E202" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F202" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
-      <c r="A203" s="17" t="s">
-        <v>466</v>
-      </c>
-      <c r="B203" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="D203" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="E203" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F203" s="11"/>
-    </row>
-    <row r="204" spans="1:6" ht="45.75">
-      <c r="A204" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="B204" s="25" t="s">
-        <v>470</v>
-      </c>
-      <c r="C204" s="3"/>
-      <c r="D204" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="E204" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F204" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="45.75">
-      <c r="A205" s="17" t="s">
-        <v>471</v>
-      </c>
-      <c r="B205" s="25" t="s">
-        <v>472</v>
-      </c>
-      <c r="C205" s="3"/>
-      <c r="D205" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="E205" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F205" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" ht="45.75">
-      <c r="A206" s="17" t="s">
-        <v>473</v>
-      </c>
-      <c r="B206" s="25" t="s">
-        <v>474</v>
-      </c>
-      <c r="C206" s="3"/>
-      <c r="D206" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="E206" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F206" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" ht="45.75">
-      <c r="A207" s="17" t="s">
-        <v>475</v>
-      </c>
-      <c r="B207" s="25" t="s">
-        <v>476</v>
-      </c>
-      <c r="C207" s="3"/>
-      <c r="D207" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="E207" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F207" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" ht="30.75">
-      <c r="A208" s="19" t="s">
-        <v>477</v>
-      </c>
-      <c r="B208" s="27" t="s">
-        <v>478</v>
-      </c>
-      <c r="C208" s="7"/>
-      <c r="D208" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="E208" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="F208" s="13" t="s">
-        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -6166,15 +5785,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010061E35DE47651DF429210691EF696823B" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="c6ebacde51774820634ece3fb3906119">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="315e3a4a-b38c-4f09-b07f-0ddfbc963ba0" xmlns:ns3="4f6e94ee-60ff-406f-a44a-4d5e50ef0010" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fb869d37cf630381597fde8ca37b9a74" ns2:_="" ns3:_="">
     <xsd:import namespace="315e3a4a-b38c-4f09-b07f-0ddfbc963ba0"/>
@@ -6411,10 +6021,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85DD24D7-952A-4E41-A016-EFA62D065AE8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A42D2133-A653-4AC0-A00E-D54F242BE6CC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="315e3a4a-b38c-4f09-b07f-0ddfbc963ba0"/>
+    <ds:schemaRef ds:uri="4f6e94ee-60ff-406f-a44a-4d5e50ef0010"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A42D2133-A653-4AC0-A00E-D54F242BE6CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85DD24D7-952A-4E41-A016-EFA62D065AE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>